--- a/七小服/七小服功能列表.xlsx
+++ b/七小服/七小服功能列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="460" windowWidth="24440" windowHeight="17660"/>
+    <workbookView xWindow="13540" yWindow="460" windowWidth="24440" windowHeight="17660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="193">
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
@@ -126,19 +126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工程师库存（聊天）</t>
-    <rPh sb="0" eb="1">
-      <t>gong hceng s</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ku cun</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>liao tian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>联系客服购买</t>
     <rPh sb="0" eb="1">
       <t>lian xi</t>
@@ -441,27 +428,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>zhong x</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到</t>
-    <rPh sb="0" eb="1">
-      <t>qian dao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分</t>
-    <rPh sb="0" eb="1">
-      <t>ji fen</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱包</t>
-    <rPh sb="0" eb="1">
-      <t>qian bao</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -597,16 +563,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>空闲时间</t>
-    <rPh sb="0" eb="1">
-      <t>kong xian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>商城订单</t>
     <rPh sb="0" eb="1">
       <t>shang c</t>
@@ -901,29 +857,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>评论视频（待确定）</t>
-    <rPh sb="0" eb="1">
-      <t>ping l</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi p</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>dai que d</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索</t>
     <rPh sb="0" eb="1">
       <t>sou suo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识库</t>
-    <rPh sb="0" eb="1">
-      <t>zhi shi k</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1016,35 +952,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>服豆</t>
-    <rPh sb="0" eb="1">
-      <t>fu dou</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>服豆总额</t>
     <rPh sb="0" eb="1">
       <t>fu d</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>zong e</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到/签到天数</t>
-    <rPh sb="0" eb="1">
-      <t>qian dao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>qian d</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1409,6 +1322,829 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ban</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程师库存（个人版）</t>
+    <rPh sb="0" eb="1">
+      <t>gong hceng s</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ku cun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ge r</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ban</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库（暂时隐藏）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi shi k</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zan s</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选</t>
+    <rPh sb="0" eb="1">
+      <t>shai x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论视频</t>
+    <rPh sb="0" eb="1">
+      <t>ping l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi p</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包-余额</t>
+    <rPh sb="0" eb="1">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包-服豆</t>
+    <rPh sb="0" eb="1">
+      <t>qian b</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu dou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包-积分</t>
+    <rPh sb="0" eb="1">
+      <t>qian b</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji fen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包-保证金</t>
+    <rPh sb="0" eb="1">
+      <t>qian b</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao zheng j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证金说明</t>
+    <rPh sb="0" eb="1">
+      <t>bao zheng j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shuo m</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包-优惠券</t>
+    <rPh sb="0" eb="1">
+      <t>qian b</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you hui q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未使用，已使用，已过期，优惠券规则</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi y</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guo q</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you hui q</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gui z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲时间（已隐藏）</t>
+    <rPh sb="0" eb="1">
+      <t>kong xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代测订单</t>
+    <rPh sb="0" eb="1">
+      <t>dai c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding d</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付，取消，发货</t>
+    <rPh sb="0" eb="1">
+      <t>zhi fu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qu x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代测详情（寄回，代卖，设置代卖价格，购买仓储）</t>
+    <rPh sb="0" eb="1">
+      <t>dai m</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dai m</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>she z</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dai m</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jia ge</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gou m</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>cang c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代卖订单</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding d</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消代卖</t>
+    <rPh sb="0" eb="1">
+      <t>qu x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai m</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代卖详情</t>
+    <rPh sb="0" eb="1">
+      <t>dai m</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改代卖价格，续租</t>
+    <rPh sb="0" eb="1">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai m</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu zu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后问题查看，解决售后问题</t>
+    <rPh sb="0" eb="1">
+      <t>shou h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha k</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shou h</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业中心</t>
+    <rPh sb="0" eb="1">
+      <t>qi ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业信息</t>
+    <rPh sb="0" eb="1">
+      <t>qi ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业名称</t>
+    <rPh sb="0" eb="1">
+      <t>qi ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业编码</t>
+    <rPh sb="0" eb="1">
+      <t>qi ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian m</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业营业执照</t>
+    <rPh sb="0" eb="1">
+      <t>qi ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying ye</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi zhao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>登录人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>deng lu r</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xin x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <rPh sb="0" eb="1">
+      <t>she z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改支付密码/设置支付密码</t>
+    <rPh sb="0" eb="1">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi f</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mi m</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi f</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mi m</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改登录密码</t>
+    <rPh sb="0" eb="1">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mi m</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址</t>
+    <rPh sb="0" eb="1">
+      <t>shou huo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证</t>
+    <rPh sb="0" eb="1">
+      <t>shi ming</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理缓存</t>
+    <rPh sb="0" eb="1">
+      <t>qing l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huan cun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于App</t>
+    <rPh sb="0" eb="1">
+      <t>guan y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给我五星评价</t>
+    <rPh sb="0" eb="1">
+      <t>gei w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ping j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户协议</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈</t>
+    <rPh sb="0" eb="1">
+      <t>yi j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单</t>
+    <rPh sb="0" eb="1">
+      <t>zhang d</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未结账单</t>
+    <rPh sb="0" eb="1">
+      <t>wei j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang d</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已结账单</t>
+    <rPh sb="0" eb="1">
+      <t>yi jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang d</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工账单（主账户）</t>
+    <rPh sb="0" eb="1">
+      <t>yuan gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单明细</t>
+    <rPh sb="0" eb="1">
+      <t>zhang d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单</t>
+    <rPh sb="0" eb="1">
+      <t>wo d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding d</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待付款</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fu k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待发货</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fa h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待收货</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shou h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wan c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付，取消，确认收货，查看物流</t>
+    <rPh sb="0" eb="1">
+      <t>zhi f</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qu x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>que ren</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cha k</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
+    <rPh sb="0" eb="1">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支明细</t>
+    <rPh sb="0" eb="1">
+      <t>shou z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现</t>
+    <rPh sb="0" eb="1">
+      <t>ti x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <rPh sb="0" eb="1">
+      <t>chong z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券</t>
+    <rPh sb="0" eb="1">
+      <t>you hui q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券列表</t>
+    <rPh sb="0" eb="1">
+      <t>you hui q</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lie b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领券中心</t>
+    <rPh sb="0" eb="1">
+      <t>ling q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <rPh sb="0" eb="1">
+      <t>gou w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>che</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量改变，去购买，删除</t>
+    <rPh sb="0" eb="1">
+      <t>shu l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gai bian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gou m</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shan chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户管理（主账户）</t>
+    <rPh sb="0" eb="1">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加账户</t>
+    <rPh sb="0" eb="1">
+      <t>zeng j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑账户</t>
+    <rPh sb="0" eb="1">
+      <t>bian ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用账户</t>
+    <rPh sb="0" eb="1">
+      <t>jin yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用账户</t>
+    <rPh sb="0" eb="1">
+      <t>qi yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置主账户</t>
+    <rPh sb="0" eb="1">
+      <t>she z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装标准</t>
+    <rPh sb="0" eb="1">
+      <t>bao z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准详情</t>
+    <rPh sb="0" eb="1">
+      <t>biao z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加标准</t>
+    <rPh sb="0" eb="1">
+      <t>tian j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用标准</t>
+    <rPh sb="0" eb="1">
+      <t>shi y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试标准</t>
+    <rPh sb="0" eb="1">
+      <t>ce s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试标准展示</t>
+    <rPh sb="0" eb="1">
+      <t>ce s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan s</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装标准展示</t>
+    <rPh sb="0" eb="1">
+      <t>bao z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan s</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1417,7 +2153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1440,6 +2176,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1522,7 +2265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1556,6 +2299,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1564,6 +2310,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1866,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1898,815 +2647,1215 @@
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>16</v>
+      <c r="A2" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="3" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="3"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="3"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5" t="s">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="13"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="13"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="13"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="13"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="13"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="13"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="13"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="13"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="13"/>
+      <c r="B60" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="13"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="13"/>
+      <c r="B62" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="13"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="13"/>
+      <c r="B69" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="13"/>
+      <c r="B70" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="7" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="13"/>
+      <c r="B71" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="10"/>
-      <c r="B71" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10" t="s">
+      <c r="A72" s="13"/>
+      <c r="B72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="3" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="13"/>
+      <c r="B73" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="13"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="13"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="13"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="13"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="13"/>
+      <c r="B78" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
     <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="10"/>
-      <c r="B81" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A81" s="13"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="3" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="10"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="5" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10" t="s">
-        <v>49</v>
+      <c r="A83" s="13"/>
+      <c r="B83" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="11"/>
       <c r="C85" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="C87" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="A88" s="13"/>
+      <c r="B88" s="11"/>
       <c r="C88" s="3" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="11"/>
       <c r="C89" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C91" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="10"/>
-      <c r="B92" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A92" s="13"/>
+      <c r="B92" s="11"/>
       <c r="C92" s="3" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="A93" s="13"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="3" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="11"/>
       <c r="C95" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="11"/>
       <c r="C96" s="3" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10" t="s">
+      <c r="A97" s="13"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="13"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="13"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="13"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="13"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="13"/>
+      <c r="B102" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="3" t="s">
+    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="13"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="3" t="s">
+    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="13"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="3" t="s">
+    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="13"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="13"/>
+      <c r="B106" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="10"/>
-      <c r="B105" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="3"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="13"/>
+      <c r="B107" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="13"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="13"/>
+      <c r="B109" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="13"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="13"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="14"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="13"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="13"/>
+      <c r="B123" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="13"/>
+      <c r="B127" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="13"/>
+      <c r="B128" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="13"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="13"/>
+      <c r="B132" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="13"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="13"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="13"/>
+      <c r="B137" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="13"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="13"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="13"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="13"/>
+      <c r="B141" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="13"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="13"/>
+      <c r="B143" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="13"/>
+      <c r="B144" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="13"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="13"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="13"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="13"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="13"/>
+      <c r="B149" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="13"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="13"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="13"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="13"/>
+      <c r="B153" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="13"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="13"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="14"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="33">
+    <mergeCell ref="A113:A156"/>
+    <mergeCell ref="B113:B122"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B91:B101"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A48:A112"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B28:B34"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B49:B59"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="A19:A29"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B60:B70"/>
-    <mergeCell ref="A30:A41"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="A42:A105"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="A5:A24"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
